--- a/input_files/stock_market.xlsx
+++ b/input_files/stock_market.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9567FE71-BA92-470B-9787-13D77AA7D369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71A84B7-9A52-4042-BE61-DCD75DD9F8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10035" yWindow="-14640" windowWidth="25200" windowHeight="14070"/>
+    <workbookView xWindow="12750" yWindow="-14850" windowWidth="25200" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_market" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="99">
   <si>
     <t>ticker</t>
   </si>
@@ -322,7 +333,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -800,8 +814,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1156,19 +1172,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1198,20 +1214,20 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>65.654159545898395</v>
       </c>
-      <c r="C2">
-        <v>1595000</v>
-      </c>
-      <c r="D2">
+      <c r="C2" s="2">
+        <v>1.595</v>
+      </c>
+      <c r="D2" s="2">
         <v>-7.8422546386718694E-2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>-1.1775161431632299E-3</v>
       </c>
-      <c r="F2">
-        <v>46649495552</v>
+      <c r="F2" s="2">
+        <v>46649.495552</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1221,20 +1237,20 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>44.971874237060497</v>
       </c>
-      <c r="C3">
-        <v>3326700</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
+        <v>3.3267000000000002</v>
+      </c>
+      <c r="D3" s="2">
         <v>-1.12046813964843</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>-2.4253770319130199E-2</v>
       </c>
-      <c r="F3">
-        <v>24457936896</v>
+      <c r="F3" s="2">
+        <v>24457.936895999999</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -1244,20 +1260,20 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>49.2531127929687</v>
       </c>
-      <c r="C4">
-        <v>865600</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2">
+        <v>0.86560000000000004</v>
+      </c>
+      <c r="D4" s="2">
         <v>-0.36099624633789001</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>-7.4115919795379797E-3</v>
       </c>
-      <c r="F4">
-        <v>11351617536</v>
+      <c r="F4" s="2">
+        <v>11351.617536</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -1267,20 +1283,20 @@
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>43.179355621337798</v>
       </c>
-      <c r="C5">
-        <v>4879200</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="2">
+        <v>4.8792</v>
+      </c>
+      <c r="D5" s="2">
         <v>1.7341384887695299</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4.26289206629306E-2</v>
       </c>
-      <c r="F5">
-        <v>10611859456</v>
+      <c r="F5" s="2">
+        <v>10611.859456</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1290,20 +1306,20 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>410.86080932617102</v>
       </c>
-      <c r="C6">
-        <v>1164700</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="2">
+        <v>1.1647000000000001</v>
+      </c>
+      <c r="D6" s="2">
         <v>8.17156982421875</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>1.99763386853542E-2</v>
       </c>
-      <c r="F6">
-        <v>115895599104</v>
+      <c r="F6" s="2">
+        <v>115895.59910399999</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
@@ -1313,20 +1329,20 @@
       <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>75.888488769531193</v>
       </c>
-      <c r="C7">
-        <v>916050</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
+        <v>0.91605000000000003</v>
+      </c>
+      <c r="D7" s="2">
         <v>2.17472839355468</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>2.9352415159465999E-2</v>
       </c>
-      <c r="F7">
-        <v>24506064896</v>
+      <c r="F7" s="2">
+        <v>24506.064896</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -1336,20 +1352,20 @@
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>29.297924041748001</v>
       </c>
-      <c r="C8">
-        <v>9963300</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
+        <v>9.9633000000000003</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.19859886169433499</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>6.7673190801702697E-3</v>
       </c>
-      <c r="F8">
-        <v>63387660288</v>
+      <c r="F8" s="2">
+        <v>63387.660287999999</v>
       </c>
       <c r="G8" t="s">
         <v>19</v>
@@ -1359,20 +1375,20 @@
       <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>22.469373703002901</v>
       </c>
-      <c r="C9">
-        <v>901300</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="D9" s="2">
         <v>-0.294357299804687</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>-1.27659011272983E-2</v>
       </c>
-      <c r="F9">
-        <v>11940613120</v>
+      <c r="F9" s="2">
+        <v>11940.61312</v>
       </c>
       <c r="G9" t="s">
         <v>21</v>
@@ -1382,20 +1398,20 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>554.59344482421795</v>
       </c>
-      <c r="C10">
-        <v>183500</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
+        <v>0.1835</v>
+      </c>
+      <c r="D10" s="2">
         <v>-3.83099365234375</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>-6.8344193759660096E-3</v>
       </c>
-      <c r="F10">
-        <v>38613577728</v>
+      <c r="F10" s="2">
+        <v>38613.577727999997</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1405,20 +1421,20 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>103.52999877929599</v>
       </c>
-      <c r="C11">
-        <v>2606400</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2">
+        <v>2.6063999999999998</v>
+      </c>
+      <c r="D11" s="2">
         <v>-2.0449981689453098</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>-1.9827401406311701E-2</v>
       </c>
-      <c r="F11">
-        <v>41194414080</v>
+      <c r="F11" s="2">
+        <v>41194.414080000002</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
@@ -1428,20 +1444,20 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>44.009796142578097</v>
       </c>
-      <c r="C12">
-        <v>1877600</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2">
+        <v>1.8775999999999999</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.89036560058593694</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>2.0509215588669801E-2</v>
       </c>
-      <c r="F12">
-        <v>45105881088</v>
+      <c r="F12" s="2">
+        <v>45105.881088000002</v>
       </c>
       <c r="G12" t="s">
         <v>27</v>
@@ -1451,20 +1467,20 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>202.63690185546801</v>
       </c>
-      <c r="C13">
-        <v>3042700</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2">
+        <v>3.0427</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.79624938964843694</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3.8938611487752202E-3</v>
       </c>
-      <c r="F13">
-        <v>123870109696</v>
+      <c r="F13" s="2">
+        <v>123870.109696</v>
       </c>
       <c r="G13" t="s">
         <v>29</v>
@@ -1474,20 +1490,20 @@
       <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>2233.77001953125</v>
       </c>
-      <c r="C14">
-        <v>287700</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="D14" s="2">
         <v>33.579833984375</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>1.56143146334973E-2</v>
       </c>
-      <c r="F14">
-        <v>94302846976</v>
+      <c r="F14" s="2">
+        <v>94302.846976000001</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -1497,20 +1513,20 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>28.521682739257798</v>
       </c>
-      <c r="C15">
-        <v>1581600</v>
-      </c>
-      <c r="D15">
+      <c r="C15" s="2">
+        <v>1.5815999999999999</v>
+      </c>
+      <c r="D15" s="2">
         <v>9.9586486816406194E-2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>3.53605366739599E-3</v>
       </c>
-      <c r="F15">
-        <v>16887724032</v>
+      <c r="F15" s="2">
+        <v>16887.724031999998</v>
       </c>
       <c r="G15" t="s">
         <v>33</v>
@@ -1520,20 +1536,20 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>139.12596130371</v>
       </c>
-      <c r="C16">
-        <v>11937200</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2">
+        <v>11.937200000000001</v>
+      </c>
+      <c r="D16" s="2">
         <v>-0.78813171386718694</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>-5.5412304082675902E-3</v>
       </c>
-      <c r="F16">
-        <v>149658779648</v>
+      <c r="F16" s="2">
+        <v>149658.779648</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
@@ -1543,20 +1559,20 @@
       <c r="A17" t="s">
         <v>36</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>75.257408142089801</v>
       </c>
-      <c r="C17">
-        <v>494100</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>0.49409999999999998</v>
+      </c>
+      <c r="D17" s="2">
         <v>-0.429550170898437</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>-5.7025672896761697E-3</v>
       </c>
-      <c r="F17">
-        <v>14207261696</v>
+      <c r="F17" s="2">
+        <v>14207.261696</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
@@ -1566,20 +1582,20 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>284.76812744140602</v>
       </c>
-      <c r="C18">
-        <v>1470100</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2">
+        <v>1.4701</v>
+      </c>
+      <c r="D18" s="2">
         <v>5.3985595703125</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>1.89146255390641E-2</v>
       </c>
-      <c r="F18">
-        <v>97488175104</v>
+      <c r="F18" s="2">
+        <v>97488.175103999994</v>
       </c>
       <c r="G18" t="s">
         <v>39</v>
@@ -1589,20 +1605,20 @@
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>34.074722290038999</v>
       </c>
-      <c r="C19">
-        <v>10648700</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2">
+        <v>10.6487</v>
+      </c>
+      <c r="D19" s="2">
         <v>-2.7610778808593701E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>-8.4762197418394999E-4</v>
       </c>
-      <c r="F19">
-        <v>48580726784</v>
+      <c r="F19" s="2">
+        <v>48580.726783999999</v>
       </c>
       <c r="G19" t="s">
         <v>41</v>
@@ -1612,20 +1628,20 @@
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>130.75489807128901</v>
       </c>
-      <c r="C20">
-        <v>3203600</v>
-      </c>
-      <c r="D20">
+      <c r="C20" s="2">
+        <v>3.2035999999999998</v>
+      </c>
+      <c r="D20" s="2">
         <v>2.6878738403320299</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>2.1110140339395601E-2</v>
       </c>
-      <c r="F20">
-        <v>28203896832</v>
+      <c r="F20" s="2">
+        <v>28203.896831999999</v>
       </c>
       <c r="G20" t="s">
         <v>43</v>
@@ -1635,20 +1651,20 @@
       <c r="A21" t="s">
         <v>44</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>61.267654418945298</v>
       </c>
-      <c r="C21">
-        <v>2178600</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="2">
+        <v>2.1785999999999999</v>
+      </c>
+      <c r="D21" s="2">
         <v>-0.72321319580078103</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>-1.1575203594537E-2</v>
       </c>
-      <c r="F21">
-        <v>33776791552</v>
+      <c r="F21" s="2">
+        <v>33776.791552000002</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -1658,20 +1674,20 @@
       <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>240.89309692382801</v>
       </c>
-      <c r="C22">
-        <v>632400</v>
-      </c>
-      <c r="D22">
+      <c r="C22" s="2">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.52433776855468694</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>2.1672072649343501E-3</v>
       </c>
-      <c r="F22">
-        <v>32343453696</v>
+      <c r="F22" s="2">
+        <v>32343.453696</v>
       </c>
       <c r="G22" t="s">
         <v>47</v>
@@ -1681,20 +1697,20 @@
       <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>199.11000061035099</v>
       </c>
-      <c r="C23">
-        <v>674700</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="2">
+        <v>0.67469999999999997</v>
+      </c>
+      <c r="D23" s="2">
         <v>-4.2400054931640598</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>-2.09496788672895E-2</v>
       </c>
-      <c r="F23">
-        <v>23099826176</v>
+      <c r="F23" s="2">
+        <v>23099.826175999999</v>
       </c>
       <c r="G23" t="s">
         <v>49</v>
@@ -1704,20 +1720,20 @@
       <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>55.090702056884702</v>
       </c>
-      <c r="C24">
-        <v>1930975</v>
-      </c>
-      <c r="D24">
+      <c r="C24" s="2">
+        <v>1.9309750000000001</v>
+      </c>
+      <c r="D24" s="2">
         <v>-0.67793273925781194</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>-1.21678425002617E-2</v>
       </c>
-      <c r="F24">
-        <v>44877467648</v>
+      <c r="F24" s="2">
+        <v>44877.467647999998</v>
       </c>
       <c r="G24" t="s">
         <v>51</v>
@@ -1727,20 +1743,20 @@
       <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>42.864604949951101</v>
       </c>
-      <c r="C25">
-        <v>2444429</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2">
+        <v>2.444429</v>
+      </c>
+      <c r="D25" s="2">
         <v>8.7432861328125E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>2.0327407846645399E-4</v>
       </c>
-      <c r="F25">
-        <v>13241594880</v>
+      <c r="F25" s="2">
+        <v>13241.594880000001</v>
       </c>
       <c r="G25" t="s">
         <v>53</v>
@@ -1750,20 +1766,20 @@
       <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>42.376216888427699</v>
       </c>
-      <c r="C26">
-        <v>1203500</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2">
+        <v>1.2035</v>
+      </c>
+      <c r="D26" s="2">
         <v>-0.46228408813476501</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>-1.08498653850303E-2</v>
       </c>
-      <c r="F26">
-        <v>9684409344</v>
+      <c r="F26" s="2">
+        <v>9684.4093439999997</v>
       </c>
       <c r="G26" t="s">
         <v>55</v>
@@ -1773,20 +1789,20 @@
       <c r="A27" t="s">
         <v>56</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>53.303085327148402</v>
       </c>
-      <c r="C27">
-        <v>3277800</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="2">
+        <v>3.2778</v>
+      </c>
+      <c r="D27" s="2">
         <v>0.54632568359375</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>1.0318160079896201E-2</v>
       </c>
-      <c r="F27">
-        <v>40902471680</v>
+      <c r="F27" s="2">
+        <v>40902.471680000002</v>
       </c>
       <c r="G27" t="s">
         <v>57</v>
@@ -1796,20 +1812,20 @@
       <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>116.9966506958</v>
       </c>
-      <c r="C28">
-        <v>770500</v>
-      </c>
-      <c r="D28">
+      <c r="C28" s="2">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="D28" s="2">
         <v>0.168991088867187</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>1.44568571810668E-3</v>
       </c>
-      <c r="F28">
-        <v>50450444288</v>
+      <c r="F28" s="2">
+        <v>50450.444287999999</v>
       </c>
       <c r="G28" t="s">
         <v>59</v>
@@ -1819,20 +1835,20 @@
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>18.772100448608398</v>
       </c>
-      <c r="C29">
-        <v>6377100</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2">
+        <v>6.3771000000000004</v>
+      </c>
+      <c r="D29" s="2">
         <v>0.61886024475097601</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>3.37423178902162E-2</v>
       </c>
-      <c r="F29">
-        <v>21679149056</v>
+      <c r="F29" s="2">
+        <v>21679.149055999998</v>
       </c>
       <c r="G29" t="s">
         <v>61</v>
@@ -1842,20 +1858,20 @@
       <c r="A30" t="s">
         <v>62</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>19.063257217407202</v>
       </c>
-      <c r="C30">
-        <v>67769867</v>
-      </c>
-      <c r="D30">
+      <c r="C30" s="2">
+        <v>67.769867000000005</v>
+      </c>
+      <c r="D30" s="2">
         <v>0.10959434509277299</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>5.9026883895406503E-3</v>
       </c>
-      <c r="F30">
-        <v>142539997184</v>
+      <c r="F30" s="2">
+        <v>142539.99718400001</v>
       </c>
       <c r="G30" t="s">
         <v>63</v>
@@ -1865,20 +1881,20 @@
       <c r="A31" t="s">
         <v>64</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>687.849609375</v>
       </c>
-      <c r="C31">
-        <v>567100</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2">
+        <v>0.56710000000000005</v>
+      </c>
+      <c r="D31" s="2">
         <v>6.9892578125</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>1.0138679053505999E-2</v>
       </c>
-      <c r="F31">
-        <v>113649836032</v>
+      <c r="F31" s="2">
+        <v>113649.83603200001</v>
       </c>
       <c r="G31" t="s">
         <v>65</v>
@@ -1888,20 +1904,20 @@
       <c r="A32" t="s">
         <v>66</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>52.652427673339801</v>
       </c>
-      <c r="C32">
-        <v>13989700</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="2">
+        <v>13.989699999999999</v>
+      </c>
+      <c r="D32" s="2">
         <v>-0.13936996459960899</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>-2.6119182110358398E-3</v>
       </c>
-      <c r="F32">
-        <v>51827138560</v>
+      <c r="F32" s="2">
+        <v>51827.138559999999</v>
       </c>
       <c r="G32" t="s">
         <v>67</v>
@@ -1911,20 +1927,20 @@
       <c r="A33" t="s">
         <v>68</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>214.850006103515</v>
       </c>
-      <c r="C33">
-        <v>2086700</v>
-      </c>
-      <c r="D33">
+      <c r="C33" s="2">
+        <v>2.0867</v>
+      </c>
+      <c r="D33" s="2">
         <v>-3.7099914550781201</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>-1.7338029391317698E-2</v>
       </c>
-      <c r="F33">
-        <v>82402942976</v>
+      <c r="F33" s="2">
+        <v>82402.942976000006</v>
       </c>
       <c r="G33" t="s">
         <v>69</v>
@@ -1934,20 +1950,20 @@
       <c r="A34" t="s">
         <v>70</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>67.300003051757798</v>
       </c>
-      <c r="C34">
-        <v>6013100</v>
-      </c>
-      <c r="D34">
+      <c r="C34" s="2">
+        <v>6.0130999999999997</v>
+      </c>
+      <c r="D34" s="2">
         <v>1.09000396728515</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>1.6623516430658E-2</v>
       </c>
-      <c r="F34">
-        <v>13900362752</v>
+      <c r="F34" s="2">
+        <v>13900.362751999999</v>
       </c>
       <c r="G34" t="s">
         <v>71</v>
@@ -1957,20 +1973,20 @@
       <c r="A35" t="s">
         <v>72</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>170.45867919921801</v>
       </c>
-      <c r="C35">
-        <v>431600</v>
-      </c>
-      <c r="D35">
+      <c r="C35" s="2">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="D35" s="2">
         <v>-0.926727294921875</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>-5.5073536419454798E-3</v>
       </c>
-      <c r="F35">
-        <v>8680606720</v>
+      <c r="F35" s="2">
+        <v>8680.6067199999998</v>
       </c>
       <c r="G35" t="s">
         <v>73</v>
@@ -1980,20 +1996,20 @@
       <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>166.617904663085</v>
       </c>
-      <c r="C36">
-        <v>1561800</v>
-      </c>
-      <c r="D36">
+      <c r="C36" s="2">
+        <v>1.5618000000000001</v>
+      </c>
+      <c r="D36" s="2">
         <v>-0.384719848632812</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>-2.33932659162908E-3</v>
       </c>
-      <c r="F36">
-        <v>78411956224</v>
+      <c r="F36" s="2">
+        <v>78411.956223999994</v>
       </c>
       <c r="G36" t="s">
         <v>75</v>
@@ -2003,20 +2019,20 @@
       <c r="A37" t="s">
         <v>76</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>43.1728706359863</v>
       </c>
-      <c r="C37">
-        <v>889350</v>
-      </c>
-      <c r="D37">
+      <c r="C37" s="2">
+        <v>0.88934999999999997</v>
+      </c>
+      <c r="D37" s="2">
         <v>8.2675933837890597E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>1.9149973726550599E-3</v>
       </c>
-      <c r="F37">
-        <v>18933747712</v>
+      <c r="F37" s="2">
+        <v>18933.747712</v>
       </c>
       <c r="G37" t="s">
         <v>77</v>
@@ -2026,20 +2042,18 @@
       <c r="A38" t="s">
         <v>78</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>206.51193237304599</v>
       </c>
-      <c r="C38">
-        <v>368700</v>
-      </c>
-      <c r="D38">
-        <v>-2.0056457519531201</v>
-      </c>
-      <c r="E38">
+      <c r="C38" s="2">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1">
         <v>-9.5188767664583698E-3</v>
       </c>
-      <c r="F38">
-        <v>35271376896</v>
+      <c r="F38" s="2">
+        <v>35271.376896000002</v>
       </c>
       <c r="G38" t="s">
         <v>79</v>
@@ -2049,20 +2063,20 @@
       <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>122.51000213623</v>
       </c>
-      <c r="C39">
-        <v>927300</v>
-      </c>
-      <c r="D39">
+      <c r="C39" s="2">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="D39" s="2">
         <v>-2.7399978637695299</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <v>-2.1902461208553398E-2</v>
       </c>
-      <c r="F39">
-        <v>10470670336</v>
+      <c r="F39" s="2">
+        <v>10470.670335999999</v>
       </c>
       <c r="G39" t="s">
         <v>81</v>
@@ -2072,20 +2086,20 @@
       <c r="A40" t="s">
         <v>82</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>44.389999389648402</v>
       </c>
-      <c r="C40">
-        <v>10934400</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="2">
+        <v>10.9344</v>
+      </c>
+      <c r="D40" s="2">
         <v>1.3600006103515601</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <v>3.1416044850758003E-2</v>
       </c>
-      <c r="F40">
-        <v>25147392000</v>
+      <c r="F40" s="2">
+        <v>25147.392</v>
       </c>
       <c r="G40" t="s">
         <v>83</v>
@@ -2095,20 +2109,20 @@
       <c r="A41" t="s">
         <v>70</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>67.300003051757798</v>
       </c>
-      <c r="C41">
-        <v>6013100</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="2">
+        <v>6.0130999999999997</v>
+      </c>
+      <c r="D41" s="2">
         <v>1.09000396728515</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <v>1.6623516430658E-2</v>
       </c>
-      <c r="F41">
-        <v>13900362752</v>
+      <c r="F41" s="2">
+        <v>13900.362751999999</v>
       </c>
       <c r="G41" t="s">
         <v>71</v>
@@ -2118,20 +2132,20 @@
       <c r="A42" t="s">
         <v>17</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>75.888481140136705</v>
       </c>
-      <c r="C42">
-        <v>916050</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="2">
+        <v>0.91605000000000003</v>
+      </c>
+      <c r="D42" s="2">
         <v>2.17472839355468</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <v>2.93524121369216E-2</v>
       </c>
-      <c r="F42">
-        <v>24506064896</v>
+      <c r="F42" s="2">
+        <v>24506.064896</v>
       </c>
       <c r="G42" t="s">
         <v>18</v>
@@ -2141,20 +2155,18 @@
       <c r="A43" t="s">
         <v>84</v>
       </c>
-      <c r="B43">
-        <v>153.79135131835901</v>
-      </c>
-      <c r="C43">
-        <v>1590600</v>
-      </c>
-      <c r="D43">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2">
+        <v>1.5906</v>
+      </c>
+      <c r="D43" s="2">
         <v>2.5660400390625</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <v>1.7669002493778601E-2</v>
       </c>
-      <c r="F43">
-        <v>8747030528</v>
+      <c r="F43" s="2">
+        <v>8747.0305279999993</v>
       </c>
       <c r="G43" t="s">
         <v>85</v>
@@ -2164,20 +2176,20 @@
       <c r="A44" t="s">
         <v>86</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>168.44999694824199</v>
       </c>
-      <c r="C44">
-        <v>595000</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="2">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D44" s="2">
         <v>1.83000183105468</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <v>1.0810502388061799E-2</v>
       </c>
-      <c r="F44">
-        <v>7454444544</v>
+      <c r="F44" s="2">
+        <v>7454.444544</v>
       </c>
       <c r="G44" t="s">
         <v>87</v>
@@ -2187,20 +2199,20 @@
       <c r="A45" t="s">
         <v>88</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>130.61431884765599</v>
       </c>
-      <c r="C45">
-        <v>375800</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="2">
+        <v>0.37580000000000002</v>
+      </c>
+      <c r="D45" s="2">
         <v>0.284530639648437</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <v>2.1717801585922399E-3</v>
       </c>
-      <c r="F45">
-        <v>19290296320</v>
+      <c r="F45" s="2">
+        <v>19290.296320000001</v>
       </c>
       <c r="G45" t="s">
         <v>89</v>
@@ -2210,20 +2222,20 @@
       <c r="A46" t="s">
         <v>90</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>106.41549682617099</v>
       </c>
-      <c r="C46">
-        <v>21418000</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="2">
+        <v>21.417999999999999</v>
+      </c>
+      <c r="D46" s="2">
         <v>0.88950347900390603</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <v>8.4549144112964197E-3</v>
       </c>
-      <c r="F46">
-        <v>1241622118400</v>
+      <c r="F46" s="2">
+        <v>1241622.1184</v>
       </c>
       <c r="G46" t="s">
         <v>91</v>
@@ -2233,20 +2245,20 @@
       <c r="A47" t="s">
         <v>92</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>34.938182830810497</v>
       </c>
-      <c r="C47">
-        <v>10580800</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="2">
+        <v>10.5808</v>
+      </c>
+      <c r="D47" s="2">
         <v>-0.93941116333007801</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <v>-2.6161917025648702E-2</v>
       </c>
-      <c r="F47">
-        <v>15710258176</v>
+      <c r="F47" s="2">
+        <v>15710.258175999999</v>
       </c>
       <c r="G47" t="s">
         <v>93</v>
@@ -2256,20 +2268,18 @@
       <c r="A48" t="s">
         <v>94</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>123.17400360107401</v>
       </c>
-      <c r="C48">
-        <v>3161800</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="2">
+        <v>3.1617999999999999</v>
+      </c>
+      <c r="D48" s="2">
         <v>-0.203285217285156</v>
       </c>
-      <c r="E48">
-        <v>-1.63764862298919E-3</v>
-      </c>
-      <c r="F48">
-        <v>193658322944</v>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2">
+        <v>193658.32294400001</v>
       </c>
       <c r="G48" t="s">
         <v>95</v>
@@ -2279,20 +2289,20 @@
       <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>144.19000244140599</v>
       </c>
-      <c r="C49">
-        <v>459100</v>
-      </c>
-      <c r="D49">
+      <c r="C49" s="2">
+        <v>0.45910000000000001</v>
+      </c>
+      <c r="D49" s="2">
         <v>3.4100036621093701</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <v>2.38929626747699E-2</v>
       </c>
-      <c r="F49">
-        <v>16041768960</v>
+      <c r="F49" s="2">
+        <v>16041.768959999999</v>
       </c>
       <c r="G49" t="s">
         <v>96</v>
@@ -2302,23 +2312,92 @@
       <c r="A50" t="s">
         <v>97</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>240.47450256347599</v>
       </c>
-      <c r="C50">
-        <v>21653500</v>
-      </c>
-      <c r="D50">
+      <c r="C50" s="2">
+        <v>21.653500000000001</v>
+      </c>
+      <c r="D50" s="2">
         <v>-1.2674102783203101</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <v>-5.2655598558448303E-3</v>
       </c>
-      <c r="F50">
-        <v>1846062350336</v>
+      <c r="F50" s="2">
+        <v>1846062.3503360001</v>
       </c>
       <c r="G50" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="2">
+        <v>170.45867919921801</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.43159999999999998</v>
+      </c>
+      <c r="D51" s="2">
+        <v>-0.926727294921875</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-5.5073536419454798E-3</v>
+      </c>
+      <c r="F51" s="2">
+        <v>8680.6067199999998</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="2">
+        <v>206.51193237304599</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="D52" s="2">
+        <v>-2.0056457519531201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-9.5188767664583698E-3</v>
+      </c>
+      <c r="F52" s="2">
+        <v>35271.376896000002</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="2">
+        <v>139.12596130371</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11.937200000000001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-0.78813171386718694</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-5.5412304082675902E-3</v>
+      </c>
+      <c r="F53" s="2">
+        <v>149658.779648</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
